--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Melbourne ACLR Dataset\_Sorted Gait Data\_Auto C3D Checker\_Git Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB5F063-A746-4ACA-9E4C-A43EC655B862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EE0C-ACA5-4F3F-948C-CF21C4BE25CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4762983E-9798-4FFD-8541-0981FAB3A3BF}"/>
   </bookViews>
@@ -63,7 +63,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +73,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -133,25 +139,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <border>
         <left style="thin">
@@ -173,6 +168,118 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -196,35 +303,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
         </patternFill>
       </fill>
     </dxf>
@@ -249,6 +328,111 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -268,27 +452,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,23 +768,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A98E2CE-6566-4EDB-9C88-3A10A55AA703}">
-  <dimension ref="A1:BA51"/>
+  <dimension ref="A1:CZ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="53" width="13.28515625" style="1" customWidth="1"/>
-    <col min="54" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="104" width="13.28515625" style="1" customWidth="1"/>
+    <col min="105" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:104" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -679,8 +842,59 @@
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
+      <c r="CB1" s="4"/>
+      <c r="CC1" s="4"/>
+      <c r="CD1" s="4"/>
+      <c r="CE1" s="4"/>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="4"/>
+      <c r="CH1" s="4"/>
+      <c r="CI1" s="4"/>
+      <c r="CJ1" s="4"/>
+      <c r="CK1" s="4"/>
+      <c r="CL1" s="4"/>
+      <c r="CM1" s="4"/>
+      <c r="CN1" s="4"/>
+      <c r="CO1" s="4"/>
+      <c r="CP1" s="4"/>
+      <c r="CQ1" s="4"/>
+      <c r="CR1" s="4"/>
+      <c r="CS1" s="4"/>
+      <c r="CT1" s="4"/>
+      <c r="CU1" s="4"/>
+      <c r="CV1" s="4"/>
+      <c r="CW1" s="4"/>
+      <c r="CX1" s="4"/>
+      <c r="CY1" s="4"/>
+      <c r="CZ1" s="4"/>
     </row>
-    <row r="2" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:104" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="25:25" x14ac:dyDescent="0.25">
       <c r="Y49" s="2"/>
     </row>
@@ -691,29 +905,62 @@
       <c r="Y51" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:BA1048576">
-    <cfRule type="expression" dxfId="6" priority="1">
+  <conditionalFormatting sqref="A2:CZ1048576">
+    <cfRule type="containsBlanks" dxfId="35" priority="1" stopIfTrue="1">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+      <formula>IF(AND(A$1="Trial Usability",A2="Calibration"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
+      <formula>IF(AND(A$1="Trial Usability",A2="Execution"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="8" stopIfTrue="1">
       <formula>IF(AND(A$1="Trial Usability",A2="Unusable"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>IF(AND(A$1="Trial Usability",A2="Execution"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
-      <formula>IF(AND(A$1="Trial Usability",A2="Calibration"),TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A2))=0</formula>
+    <cfRule type="expression" dxfId="31" priority="9">
+      <formula>IF(AND(A$1="Instrumented Leg Hit FP?",A2="Yes"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="10">
+      <formula>IF(AND(A$1="Instrumented Leg Hit FP?",A2="No"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
+      <formula>IF(AND(A$1="Percentage Usable EMG",AND(NOT(ISBLANK(A2)),A2&lt;50)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
+      <formula>IF(AND(A$1="Percentage Usable EMG",AND(A2&lt;75,A2&gt;49.99)),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
+      <formula>IF(AND(A$1="Percentage Usable EMG",A2&gt;74.99),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="Noise">
+      <formula>NOT(ISERROR(SEARCH("Noise",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="Usable">
+      <formula>NOT(ISERROR(SEARCH("Usable",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Good">
+      <formula>NOT(ISERROR(SEARCH("Good",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Artefact">
+      <formula>NOT(ISERROR(SEARCH("Artefact",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="64" operator="containsText" text="Error">
+      <formula>NOT(ISERROR(SEARCH("Error",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="3" stopIfTrue="1" operator="containsText" text="Calibration">
+      <formula>NOT(ISERROR(SEARCH("Calibration",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" stopIfTrue="1" operator="containsText" text="Execution">
+      <formula>NOT(ISERROR(SEARCH("Execution",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="5" stopIfTrue="1" operator="containsText" text="Unusable">
+      <formula>NOT(ISERROR(SEARCH("Unusable",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BA1048576">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
+  <conditionalFormatting sqref="B2:CZ1048576">
+    <cfRule type="notContainsBlanks" dxfId="19" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" stopIfTrue="1" operator="containsText" text="Artefact">
-      <formula>NOT(ISERROR(SEARCH("Artefact",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="53" operator="containsText" text="Error">
-      <formula>NOT(ISERROR(SEARCH("Error",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Melbourne ACLR Dataset\_Sorted Gait Data\_Auto C3D Checker\_Git Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EE0C-ACA5-4F3F-948C-CF21C4BE25CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABEABF-C892-41EA-9468-5FC54F2D3EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4762983E-9798-4FFD-8541-0981FAB3A3BF}"/>
   </bookViews>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Trials</t>
   </si>
   <si>
     <t>Instrumented Leg</t>
+  </si>
+  <si>
+    <t>Instrumented Leg Hit FP?</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="19">
     <dxf>
       <border>
         <left style="thin">
@@ -168,6 +171,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8181"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5"/>
         </patternFill>
       </fill>
@@ -175,6 +206,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -182,6 +220,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -189,14 +241,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -210,6 +262,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -217,218 +276,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8181"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <fill>
@@ -771,10 +624,10 @@
   <dimension ref="A1:CZ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +644,9 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -906,60 +761,63 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:CZ1048576">
-    <cfRule type="containsBlanks" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="18" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>IF(COUNTIF(A$1,"Max_*"),TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="4" stopIfTrue="1" operator="containsText" text="Calibration">
+      <formula>NOT(ISERROR(SEARCH("Calibration",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="5" stopIfTrue="1" operator="containsText" text="Execution">
+      <formula>NOT(ISERROR(SEARCH("Execution",A2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="6" stopIfTrue="1" operator="containsText" text="Unusable">
+      <formula>NOT(ISERROR(SEARCH("Unusable",A2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>IF(AND(A$1="Trial Usability",A2="Calibration"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>IF(AND(A$1="Trial Usability",A2="Execution"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>IF(AND(A$1="Trial Usability",A2="Unusable"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>IF(AND(A$1="Instrumented Leg Hit FP?",A2="Yes"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>IF(AND(A$1="Instrumented Leg Hit FP?",A2="No"),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>IF(AND(A$1="Percentage Usable EMG",AND(NOT(ISBLANK(A2)),A2&lt;50)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="13" stopIfTrue="1">
       <formula>IF(AND(A$1="Percentage Usable EMG",AND(A2&lt;75,A2&gt;49.99)),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>IF(AND(A$1="Percentage Usable EMG",A2&gt;74.99),TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="Noise">
+    <cfRule type="containsText" dxfId="5" priority="15" operator="containsText" text="Noise">
       <formula>NOT(ISERROR(SEARCH("Noise",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="19" operator="containsText" text="Usable">
+    <cfRule type="containsText" dxfId="4" priority="20" operator="containsText" text="Usable">
       <formula>NOT(ISERROR(SEARCH("Usable",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="Good">
+    <cfRule type="containsText" dxfId="3" priority="21" operator="containsText" text="Good">
       <formula>NOT(ISERROR(SEARCH("Good",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="Artefact">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="containsText" text="Artefact">
       <formula>NOT(ISERROR(SEARCH("Artefact",A2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="64" operator="containsText" text="Error">
+    <cfRule type="containsText" dxfId="1" priority="65" operator="containsText" text="Error">
       <formula>NOT(ISERROR(SEARCH("Error",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="3" stopIfTrue="1" operator="containsText" text="Calibration">
-      <formula>NOT(ISERROR(SEARCH("Calibration",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" stopIfTrue="1" operator="containsText" text="Execution">
-      <formula>NOT(ISERROR(SEARCH("Execution",A2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" stopIfTrue="1" operator="containsText" text="Unusable">
-      <formula>NOT(ISERROR(SEARCH("Unusable",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:CZ1048576">
-    <cfRule type="notContainsBlanks" dxfId="19" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
